--- a/solutions/nvidia/ai/dgx-superpod/presales/level-of-effort-estimate.xlsx
+++ b/solutions/nvidia/ai/dgx-superpod/presales/level-of-effort-estimate.xlsx
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="E31" s="49">
-        <f>ROUND(SUM($G$3:$G$35)*0.10,0)</f>
+        <f>ROUND(SUM($G$3:$G$30)*0.10,0)</f>
         <v/>
       </c>
       <c r="F31" s="48">
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="E32" s="55">
-        <f>ROUND(SUM($G$3:$G$35)*0.10,0)</f>
+        <f>ROUND(SUM($G$3:$G$31)*0.10,0)</f>
         <v/>
       </c>
       <c r="F32" s="54">
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G33" s="58">
-        <f>SUM($G$3:$G$37)</f>
+        <f>SUM($G$3:$G$32)</f>
         <v/>
       </c>
       <c r="H33" s="58" t="inlineStr">
